--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1月1日</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1-1</t>
+          <t>1月1日</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,50 +554,6 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>level</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>小考</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>英文</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-06-19 00:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>作業5</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>數學</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-06-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -645,22 +601,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>財經分享</t>
+          <t>海外所得課稅實務</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H205</t>
+          <t>人文大樓(H208 教室)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-06-29 00:00:00</t>
+          <t>2025-06-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:20-13:20</t>
         </is>
       </c>
     </row>
